--- a/import/Review_source_code/HongTT/HongTT_Review.xlsx
+++ b/import/Review_source_code/HongTT/HongTT_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\import\Review_source_code\HongTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CE62F-6363-4233-BA8E-176EFB3C03AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0A7CB-1421-4D61-80B6-A774D1A6DD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F866AB-C98D-4E9B-AA49-CB73A3C65646}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="HoangDD" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QueBX!$A$1:$T$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QueBX!$A$1:$T$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -41,6 +41,46 @@
   </si>
   <si>
     <t>Reasons</t>
+  </si>
+  <si>
+    <t>ExcelHelper</t>
+  </si>
+  <si>
+    <t>validateDuplicateEmail</t>
+  </si>
+  <si>
+    <t>Check duplicate email trong List&lt;User&gt; thì nên đưa vào HashMap check theo key sẽ nhanh hơn loop list</t>
+  </si>
+  <si>
+    <t>Không cần thiết check email != "" vì trước đó đã tại funtion validateColumn đã thực hiện check rồi</t>
+  </si>
+  <si>
+    <t>validateColumn</t>
+  </si>
+  <si>
+    <t>Cần có sự thống nhất truyền param minValue và maxValue khi check giá trị giữ các column string,  numeric. Trường hợp là String nên để mặc định giá trị cho 2 param này và check theo columName</t>
+  </si>
+  <si>
+    <t>mapDataObject</t>
+  </si>
+  <si>
+    <t>line 67 : file import không có column id</t>
+  </si>
+  <si>
+    <t>Check email tồn tại tronng table user : thay vì truyền từng email vào câu đk where thì nên select 1 lần list gia trị email tồn tại trong bảng và dùng check containKey, như vậy sẽ không phải connect bd nhiều lần</t>
+  </si>
+  <si>
+    <t>ExcelApiServiceImpl</t>
+  </si>
+  <si>
+    <t>saveFileImport</t>
+  </si>
+  <si>
+    <t>Xử lý đọc cả file từ ExcelHelper, tuy nhiên khi xử lý import file lại thực hiện theo thứ tự từng sheet. Trường hợp sheet1 , 3 không có dữ liệu lỗi và sheets 2 có dữ liệu lỗi thì đang import sheet1 và dừng tại sheet2. 
+Đoạn xử lý này nên là : import những sheet có dữ liệu đúng và không import + trả về message dữ liệu của sheet bị lỗi</t>
+  </si>
+  <si>
+    <t>Việc xử lý dữ liệu luồng : ExcelHelper vừa là input vừa là output cho ExcelApiServiceImpl là không hợp lý cho lắm vì ExcelHelper và ExcelApiServiceImpl đều là 1 service</t>
   </si>
 </sst>
 </file>
@@ -70,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -93,15 +133,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D091D9B-1611-4C08-A229-2E5AC3E55C5B}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:J7"/>
+      <selection activeCell="B12" sqref="B12:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,396 +703,397 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>A2+1</f>
+      <c r="A3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
+      <c r="K11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="29">
+        <v>5</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="K17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -861,15 +1106,15 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -882,15 +1127,15 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -903,15 +1148,15 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -924,15 +1169,15 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -945,15 +1190,15 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -966,15 +1211,15 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -987,15 +1232,15 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1008,15 +1253,15 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1029,15 +1274,15 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1050,15 +1295,15 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1071,15 +1316,15 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1092,15 +1337,15 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1113,15 +1358,15 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1134,15 +1379,15 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1155,15 +1400,15 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1176,15 +1421,15 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1197,15 +1442,15 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -1218,126 +1463,118 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:S4"/>
+  <mergeCells count="79">
+    <mergeCell ref="K12:S16"/>
+    <mergeCell ref="K17:S18"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="F12:J16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B12:E18"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:S33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:S20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:S19"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B2:E11"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="K6:S8"/>
+    <mergeCell ref="F4:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:S11"/>
+    <mergeCell ref="K9:S10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:S1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:S7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:S8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:S5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:S6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:S11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:S15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:S13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:S19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:S20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:S17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:S18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="K28:S28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="K29:S29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:S33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="K4:S5"/>
+    <mergeCell ref="K2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2158,6 +2395,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:S33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:S19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:S20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:S17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:S18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:S11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:S5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:S6"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:S3"/>
@@ -2170,102 +2503,6 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:S2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:S7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:S8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:S5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:S6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:S11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:S15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:S13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:S19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:S20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:S17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:S18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="K28:S28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="K29:S29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:S33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="K34:S34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
